--- a/Documentation/CMPE 202 - Sprint Task Sheet.xlsx
+++ b/Documentation/CMPE 202 - Sprint Task Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sathyasripasham/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86511424-A3AD-514C-AB8D-E2A0D4837EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF3BD3-A07C-0F4A-8B0A-052F5347793B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2438,8 +2438,8 @@
   <dimension ref="A1:BW1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E37" sqref="E37"/>
+      <pane xSplit="5" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT28" sqref="BT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3278,7 +3278,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="12">
         <f>SUM(D6:D31)</f>
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="9">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="BF5" s="9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG5" s="9">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BH5" s="9">
         <f t="shared" si="4"/>
@@ -3503,55 +3503,55 @@
       </c>
       <c r="BI5" s="9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM5" s="9">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BN5" s="9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BO5" s="9">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BP5" s="9">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BQ5" s="9">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BR5" s="9">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS5" s="9">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BT5" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU5" s="9">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BV5" s="9">
         <f t="shared" si="4"/>
@@ -5233,10 +5233,10 @@
         <v>47</v>
       </c>
       <c r="D24" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="18"/>
@@ -5306,11 +5306,21 @@
       <c r="BK24" s="25">
         <v>2</v>
       </c>
-      <c r="BL24" s="18"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="27"/>
+      <c r="BL24" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM24" s="26">
+        <v>2</v>
+      </c>
+      <c r="BN24" s="26">
+        <v>2</v>
+      </c>
+      <c r="BO24" s="26">
+        <v>2</v>
+      </c>
+      <c r="BP24" s="27">
+        <v>2</v>
+      </c>
       <c r="BQ24" s="28"/>
       <c r="BR24" s="29"/>
       <c r="BS24" s="29"/>
@@ -5328,10 +5338,10 @@
         <v>47</v>
       </c>
       <c r="D25" s="15">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
@@ -5385,8 +5395,12 @@
       <c r="BC25" s="28"/>
       <c r="BD25" s="29"/>
       <c r="BE25" s="29"/>
-      <c r="BF25" s="29"/>
-      <c r="BG25" s="29"/>
+      <c r="BF25" s="29">
+        <v>2</v>
+      </c>
+      <c r="BG25" s="29">
+        <v>2</v>
+      </c>
       <c r="BH25" s="29"/>
       <c r="BI25" s="29"/>
       <c r="BJ25" s="24"/>
@@ -5400,11 +5414,21 @@
       <c r="BN25" s="26"/>
       <c r="BO25" s="26"/>
       <c r="BP25" s="27"/>
-      <c r="BQ25" s="28"/>
-      <c r="BR25" s="29"/>
-      <c r="BS25" s="29"/>
-      <c r="BT25" s="29"/>
-      <c r="BU25" s="29"/>
+      <c r="BQ25" s="28">
+        <v>2</v>
+      </c>
+      <c r="BR25" s="29">
+        <v>2</v>
+      </c>
+      <c r="BS25" s="29">
+        <v>2</v>
+      </c>
+      <c r="BT25" s="29">
+        <v>2</v>
+      </c>
+      <c r="BU25" s="29">
+        <v>2</v>
+      </c>
       <c r="BV25" s="29"/>
       <c r="BW25" s="29"/>
     </row>
@@ -5417,10 +5441,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -5518,7 +5542,7 @@
       </c>
       <c r="E27" s="16">
         <f>SUM(F25:BW25)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -5612,10 +5636,10 @@
         <v>47</v>
       </c>
       <c r="D28" s="15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -5670,17 +5694,37 @@
       <c r="BD28" s="29"/>
       <c r="BE28" s="29"/>
       <c r="BF28" s="29"/>
-      <c r="BG28" s="29"/>
+      <c r="BG28" s="29">
+        <v>2</v>
+      </c>
       <c r="BH28" s="29"/>
-      <c r="BI28" s="29"/>
-      <c r="BJ28" s="24"/>
-      <c r="BK28" s="25"/>
-      <c r="BL28" s="18"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="27"/>
-      <c r="BQ28" s="28"/>
+      <c r="BI28" s="29">
+        <v>2</v>
+      </c>
+      <c r="BJ28" s="24">
+        <v>2</v>
+      </c>
+      <c r="BK28" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM28" s="26">
+        <v>2</v>
+      </c>
+      <c r="BN28" s="26">
+        <v>2</v>
+      </c>
+      <c r="BO28" s="26">
+        <v>2</v>
+      </c>
+      <c r="BP28" s="27">
+        <v>2</v>
+      </c>
+      <c r="BQ28" s="28">
+        <v>2</v>
+      </c>
       <c r="BR28" s="29"/>
       <c r="BS28" s="29"/>
       <c r="BT28" s="29"/>
@@ -5789,7 +5833,7 @@
       </c>
       <c r="E30" s="16">
         <f>SUM(F28:BW28)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
@@ -6240,7 +6284,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38">
         <f>SUM(D6:D35)</f>
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="39"/>
